--- a/natmiOut/OldD4/LR-pairs_lrc2p/Siglec1-Spn.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Siglec1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>53.8494740757108</v>
+        <v>0.120277</v>
       </c>
       <c r="H2">
-        <v>53.8494740757108</v>
+        <v>0.360831</v>
       </c>
       <c r="I2">
-        <v>0.5721726874183063</v>
+        <v>0.001062914843064901</v>
       </c>
       <c r="J2">
-        <v>0.5721726874183063</v>
+        <v>0.00106414053856905</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16889117427249</v>
+        <v>3.787414</v>
       </c>
       <c r="N2">
-        <v>2.16889117427249</v>
+        <v>11.362242</v>
       </c>
       <c r="O2">
-        <v>0.469686176508386</v>
+        <v>0.5877125485801681</v>
       </c>
       <c r="P2">
-        <v>0.469686176508386</v>
+        <v>0.587712548580168</v>
       </c>
       <c r="Q2">
-        <v>116.7936490620244</v>
+        <v>0.455538793678</v>
       </c>
       <c r="R2">
-        <v>116.7936490620244</v>
+        <v>4.099849143102</v>
       </c>
       <c r="S2">
-        <v>0.2687416018560321</v>
+        <v>0.0006246883913413623</v>
       </c>
       <c r="T2">
-        <v>0.2687416018560321</v>
+        <v>0.0006254087479698888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>53.8494740757108</v>
+        <v>0.120277</v>
       </c>
       <c r="H3">
-        <v>53.8494740757108</v>
+        <v>0.360831</v>
       </c>
       <c r="I3">
-        <v>0.5721726874183063</v>
+        <v>0.001062914843064901</v>
       </c>
       <c r="J3">
-        <v>0.5721726874183063</v>
+        <v>0.00106414053856905</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.44885421137176</v>
+        <v>2.656916666666667</v>
       </c>
       <c r="N3">
-        <v>2.44885421137176</v>
+        <v>7.97075</v>
       </c>
       <c r="O3">
-        <v>0.530313823491614</v>
+        <v>0.412287451419832</v>
       </c>
       <c r="P3">
-        <v>0.530313823491614</v>
+        <v>0.4122874514198319</v>
       </c>
       <c r="Q3">
-        <v>131.8695113704588</v>
+        <v>0.3195659659166667</v>
       </c>
       <c r="R3">
-        <v>131.8695113704588</v>
+        <v>2.87609369325</v>
       </c>
       <c r="S3">
-        <v>0.3034310855622742</v>
+        <v>0.0004382264517235387</v>
       </c>
       <c r="T3">
-        <v>0.3034310855622742</v>
+        <v>0.0004387317905991608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>40.0419029316675</v>
+        <v>0.4782236666666666</v>
       </c>
       <c r="H4">
-        <v>40.0419029316675</v>
+        <v>1.434671</v>
       </c>
       <c r="I4">
-        <v>0.4254615964780475</v>
+        <v>0.004226169871254865</v>
       </c>
       <c r="J4">
-        <v>0.4254615964780475</v>
+        <v>0.004231043260167216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.16889117427249</v>
+        <v>3.787414</v>
       </c>
       <c r="N4">
-        <v>2.16889117427249</v>
+        <v>11.362242</v>
       </c>
       <c r="O4">
-        <v>0.469686176508386</v>
+        <v>0.5877125485801681</v>
       </c>
       <c r="P4">
-        <v>0.469686176508386</v>
+        <v>0.587712548580168</v>
       </c>
       <c r="Q4">
-        <v>86.84652986956939</v>
+        <v>1.811231010264666</v>
       </c>
       <c r="R4">
-        <v>86.84652986956939</v>
+        <v>16.301079092382</v>
       </c>
       <c r="S4">
-        <v>0.1998334305009279</v>
+        <v>0.002483773065767917</v>
       </c>
       <c r="T4">
-        <v>0.1998334305009279</v>
+        <v>0.002486637217585817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>40.0419029316675</v>
+        <v>0.4782236666666666</v>
       </c>
       <c r="H5">
-        <v>40.0419029316675</v>
+        <v>1.434671</v>
       </c>
       <c r="I5">
-        <v>0.4254615964780475</v>
+        <v>0.004226169871254865</v>
       </c>
       <c r="J5">
-        <v>0.4254615964780475</v>
+        <v>0.004231043260167216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.44885421137176</v>
+        <v>2.656916666666667</v>
       </c>
       <c r="N5">
-        <v>2.44885421137176</v>
+        <v>7.97075</v>
       </c>
       <c r="O5">
-        <v>0.530313823491614</v>
+        <v>0.412287451419832</v>
       </c>
       <c r="P5">
-        <v>0.530313823491614</v>
+        <v>0.4122874514198319</v>
       </c>
       <c r="Q5">
-        <v>98.05678262555318</v>
+        <v>1.270600430361111</v>
       </c>
       <c r="R5">
-        <v>98.05678262555318</v>
+        <v>11.43540387325</v>
       </c>
       <c r="S5">
-        <v>0.2256281659771196</v>
+        <v>0.001742396805486948</v>
       </c>
       <c r="T5">
-        <v>0.2256281659771196</v>
+        <v>0.001744406042581398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.222647062320615</v>
+        <v>69.61810866666667</v>
       </c>
       <c r="H6">
-        <v>0.222647062320615</v>
+        <v>208.854326</v>
       </c>
       <c r="I6">
-        <v>0.002365716103646011</v>
+        <v>0.6152308508518273</v>
       </c>
       <c r="J6">
-        <v>0.002365716103646011</v>
+        <v>0.615940301559777</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.16889117427249</v>
+        <v>3.787414</v>
       </c>
       <c r="N6">
-        <v>2.16889117427249</v>
+        <v>11.362242</v>
       </c>
       <c r="O6">
-        <v>0.469686176508386</v>
+        <v>0.5877125485801681</v>
       </c>
       <c r="P6">
-        <v>0.469686176508386</v>
+        <v>0.587712548580168</v>
       </c>
       <c r="Q6">
-        <v>0.482897248444879</v>
+        <v>263.6725994176547</v>
       </c>
       <c r="R6">
-        <v>0.482897248444879</v>
+        <v>2373.053394758892</v>
       </c>
       <c r="S6">
-        <v>0.001111144151425811</v>
+        <v>0.3615788913192727</v>
       </c>
       <c r="T6">
-        <v>0.001111144151425811</v>
+        <v>0.3619958444029338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,309 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>69.61810866666667</v>
+      </c>
+      <c r="H7">
+        <v>208.854326</v>
+      </c>
+      <c r="I7">
+        <v>0.6152308508518273</v>
+      </c>
+      <c r="J7">
+        <v>0.615940301559777</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.656916666666667</v>
+      </c>
+      <c r="N7">
+        <v>7.97075</v>
+      </c>
+      <c r="O7">
+        <v>0.412287451419832</v>
+      </c>
+      <c r="P7">
+        <v>0.4122874514198319</v>
+      </c>
+      <c r="Q7">
+        <v>184.9695132182778</v>
+      </c>
+      <c r="R7">
+        <v>1664.7256189645</v>
+      </c>
+      <c r="S7">
+        <v>0.2536519595325546</v>
+      </c>
+      <c r="T7">
+        <v>0.2539444571568432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>42.55008066666667</v>
+      </c>
+      <c r="H8">
+        <v>127.650242</v>
+      </c>
+      <c r="I8">
+        <v>0.376024612471286</v>
+      </c>
+      <c r="J8">
+        <v>0.376458223573777</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.787414</v>
+      </c>
+      <c r="N8">
+        <v>11.362242</v>
+      </c>
+      <c r="O8">
+        <v>0.5877125485801681</v>
+      </c>
+      <c r="P8">
+        <v>0.587712548580168</v>
+      </c>
+      <c r="Q8">
+        <v>161.1547712180627</v>
+      </c>
+      <c r="R8">
+        <v>1450.392940962564</v>
+      </c>
+      <c r="S8">
+        <v>0.2209943833243696</v>
+      </c>
+      <c r="T8">
+        <v>0.2212492220105071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>42.55008066666667</v>
+      </c>
+      <c r="H9">
+        <v>127.650242</v>
+      </c>
+      <c r="I9">
+        <v>0.376024612471286</v>
+      </c>
+      <c r="J9">
+        <v>0.376458223573777</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.656916666666667</v>
+      </c>
+      <c r="N9">
+        <v>7.97075</v>
+      </c>
+      <c r="O9">
+        <v>0.412287451419832</v>
+      </c>
+      <c r="P9">
+        <v>0.4122874514198319</v>
+      </c>
+      <c r="Q9">
+        <v>113.0520184912778</v>
+      </c>
+      <c r="R9">
+        <v>1017.4681664215</v>
+      </c>
+      <c r="S9">
+        <v>0.1550302291469165</v>
+      </c>
+      <c r="T9">
+        <v>0.1552090015632698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.222647062320615</v>
-      </c>
-      <c r="H7">
-        <v>0.222647062320615</v>
-      </c>
-      <c r="I7">
-        <v>0.002365716103646011</v>
-      </c>
-      <c r="J7">
-        <v>0.002365716103646011</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.44885421137176</v>
-      </c>
-      <c r="N7">
-        <v>2.44885421137176</v>
-      </c>
-      <c r="O7">
-        <v>0.530313823491614</v>
-      </c>
-      <c r="P7">
-        <v>0.530313823491614</v>
-      </c>
-      <c r="Q7">
-        <v>0.5452301962133888</v>
-      </c>
-      <c r="R7">
-        <v>0.5452301962133888</v>
-      </c>
-      <c r="S7">
-        <v>0.001254571952220199</v>
-      </c>
-      <c r="T7">
-        <v>0.001254571952220199</v>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.391011</v>
+      </c>
+      <c r="H10">
+        <v>0.782022</v>
+      </c>
+      <c r="I10">
+        <v>0.003455451962566825</v>
+      </c>
+      <c r="J10">
+        <v>0.00230629106770994</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.787414</v>
+      </c>
+      <c r="N10">
+        <v>11.362242</v>
+      </c>
+      <c r="O10">
+        <v>0.5877125485801681</v>
+      </c>
+      <c r="P10">
+        <v>0.587712548580168</v>
+      </c>
+      <c r="Q10">
+        <v>1.480920535554</v>
+      </c>
+      <c r="R10">
+        <v>8.885523213323999</v>
+      </c>
+      <c r="S10">
+        <v>0.002030812479416492</v>
+      </c>
+      <c r="T10">
+        <v>0.001355436201171486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.391011</v>
+      </c>
+      <c r="H11">
+        <v>0.782022</v>
+      </c>
+      <c r="I11">
+        <v>0.003455451962566825</v>
+      </c>
+      <c r="J11">
+        <v>0.00230629106770994</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.656916666666667</v>
+      </c>
+      <c r="N11">
+        <v>7.97075</v>
+      </c>
+      <c r="O11">
+        <v>0.412287451419832</v>
+      </c>
+      <c r="P11">
+        <v>0.4122874514198319</v>
+      </c>
+      <c r="Q11">
+        <v>1.03888364275</v>
+      </c>
+      <c r="R11">
+        <v>6.2333018565</v>
+      </c>
+      <c r="S11">
+        <v>0.001424639483150333</v>
+      </c>
+      <c r="T11">
+        <v>0.0009508548665384542</v>
       </c>
     </row>
   </sheetData>
